--- a/assets/disciplinas/LOM3049.xlsx
+++ b/assets/disciplinas/LOM3049.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-5,EM-6</t>
+    <t>EF-5,EM-5</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3049.xlsx
+++ b/assets/disciplinas/LOM3049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Abordar os princípios básicos da termodinâmica de forma que os estudantes e futuros engenheiros tenham um entendimento claro e sólido sobre estes princípios. Apresentar diversos exemplos de engenharia do mundo real e de como a termodinâmica é aplicada na prática de engenharia. Enfatizar a compreensão da termodinâmica baseada na Física e em argumentos físicos, buscando incentivar o entendimento mais profundo da termodinâmica.</t>
+    <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840521 - Rosa Ana Conte</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Termodinâmica e Energia. 2. Importância das unidades e análise dimensional.3. Sistemas e volumes de controle. 4. Equipamentos domésticos e a Termodinâmica. 5. Propriedades de um sistema: estados termodinâmicos e equilíbrio. 6. Eficiência na conversão de energia. 7. Processos e ciclos térmicos. 8. Termodinâmica e o meio ambiente.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Termodinâmica e Energia: formas de energia e transferência de energia por calor e trabalho; formas mecânicas de trabalho. 2. Sistema de Unidades e Análise Dimensional: importância na engenharia de máquinas. 3. Sistemas e volumes de controle: dispositivos ativos e passivos. 4. Propriedades de um sistema. Estados e equilíbrio: diagramas de propriedades para processos com mudança de fase; equilíbrio de estado do gás ideal; fator de compressibilidade; pressão de vapor e pressão de equilíbrio; calores específicos. 5. Balanço de energia em sistemas fechados e em volumes de controle: trabalho de fluxo e energia de escoamento de um fluido; regime permanente e transiente. 6. Máquinas térmicas e refrigeradores e a 2ª. Lei da Termodinâmica: princípios e ciclos de Carnot; entropia e variação de entropia em sólidos, líquidos e gases. 7. Eficiência na conversão de energia. Eficiência térmica. Eficiência de máquinas. Eficiência isoentrópica em dispositivos com escoamento em regime permanente. Balanço de entropia. 8. Processo e ciclos: Ciclos de potência a gás: Otto, Diesel, Stirling, Ericsson, Brayton e suas variações. Ciclos de potência a vapor e ciclos combinados gás-vapor: Rankine ideal; afastamento da condição ideal; eficiência do ciclo Rankine com e sem modificações; cogeração. Ciclos de refrigeração e sistemas de bombas de calor: sistemas a gás e por absorção. 9. Economia de energia: benefícios ao meio ambiente.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Serão realizadas 2 avaliações, com questões abrangendo problemas práticos e conceituais. A 1a. avaliação terá peso 1 e a 2a. avaliação terá peso 2. A nota será a média ponderada das 2 avaliações.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Serão aplicadas duas avaliações escritas (P1, com peso 1 e P2, com peso 2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (P1 + P2)/3.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.Çengel, Y.A.; Boles, M.A. Thermodynamics An Engineering Approach, 6th ed., New York: McGraw Hill, 20082.Borgnakke, C; Sonntag, R.E. Fundamentos da termodinâmica, São Paulo: Blucher, 20133.Moran, M. J., Shapiro, H. N., Munson, B. R. &amp; DeWitt, D. P. – Introdução à Engenharia de Sistemas Térmicos – LTC.4.Potter, M. C. &amp; Scott, E. P. – Ciências Térmicas: Termodinâmica, Mecânica dos Fluidos e Transmissão de Calor – Thomson.5.Moran, M. J., Shapiro, H. N., Boettner, D. D. &amp; Bailey, M. B. – Princípios de Termodinâmica para Engenharia – 7ª ed., LTC.6.Potter, M. C. &amp; Scott, E. P. – Termodinâmica – Thomson.7.J.H. Keenan. Gas Tables: Thermodynamics Properties of Air Products of Combustion and Component Gases Compressible Flow Functions. John Wiley, 1980</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3049.xlsx
+++ b/assets/disciplinas/LOM3049.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-5,EM-5</t>
+    <t>EF-6,EM-5</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3049.xlsx
+++ b/assets/disciplinas/LOM3049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Abordar os princípios básicos da termodinâmica de forma que os estudantes e futuros engenheiros tenham um entendimento claro e sólido sobre estes princípios. Apresentar diversos exemplos de engenharia do mundo real e de como a termodinâmica é aplicada na prática de engenharia. Enfatizar a compreensão da termodinâmica baseada na Física e em argumentos físicos, buscando incentivar o entendimento mais profundo da termodinâmica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840521 - Rosa Ana Conte</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Termodinâmica e Energia. 2. Importância das unidades e análise dimensional.3. Sistemas e volumes de controle. 4. Equipamentos domésticos e a Termodinâmica. 5. Propriedades de um sistema: estados termodinâmicos e equilíbrio. 6. Eficiência na conversão de energia. 7. Processos e ciclos térmicos. 8. Termodinâmica e o meio ambiente.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Termodinâmica e Energia: formas de energia e transferência de energia por calor e trabalho; formas mecânicas de trabalho. 2. Sistema de Unidades e Análise Dimensional: importância na engenharia de máquinas. 3. Sistemas e volumes de controle: dispositivos ativos e passivos. 4. Propriedades de um sistema. Estados e equilíbrio: diagramas de propriedades para processos com mudança de fase; equilíbrio de estado do gás ideal; fator de compressibilidade; pressão de vapor e pressão de equilíbrio; calores específicos. 5. Balanço de energia em sistemas fechados e em volumes de controle: trabalho de fluxo e energia de escoamento de um fluido; regime permanente e transiente. 6. Máquinas térmicas e refrigeradores e a 2ª. Lei da Termodinâmica: princípios e ciclos de Carnot; entropia e variação de entropia em sólidos, líquidos e gases. 7. Eficiência na conversão de energia. Eficiência térmica. Eficiência de máquinas. Eficiência isoentrópica em dispositivos com escoamento em regime permanente. Balanço de entropia. 8. Processo e ciclos: Ciclos de potência a gás: Otto, Diesel, Stirling, Ericsson, Brayton e suas variações. Ciclos de potência a vapor e ciclos combinados gás-vapor: Rankine ideal; afastamento da condição ideal; eficiência do ciclo Rankine com e sem modificações; cogeração. Ciclos de refrigeração e sistemas de bombas de calor: sistemas a gás e por absorção. 9. Economia de energia: benefícios ao meio ambiente.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Serão realizadas 2 avaliações, com questões abrangendo problemas práticos e conceituais. A 1a. avaliação terá peso 1 e a 2a. avaliação terá peso 2. A nota será a média ponderada das 2 avaliações.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Serão realizadas 2 avaliações, com questões abrangendo problemas práticos e conceituais. A 1a. avaliação terá peso 1 e a 2a. avaliação terá peso 2. A nota será a média ponderada das 2 avaliações.</t>
+    <t>Serão aplicadas duas avaliações escritas (P1, com peso 1 e P2, com peso 2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (P1 + P2)/3.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1, com peso 1 e P2, com peso 2) que comporão a nota final (NF). A nota final será calculada através da expressão: NF = (P1 + P2)/3.</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1.Çengel, Y.A.; Boles, M.A. Thermodynamics An Engineering Approach, 6th ed., New York: McGraw Hill, 20082.Borgnakke, C; Sonntag, R.E. Fundamentos da termodinâmica, São Paulo: Blucher, 20133.Moran, M. J., Shapiro, H. N., Munson, B. R. &amp; DeWitt, D. P. – Introdução à Engenharia de Sistemas Térmicos – LTC.4.Potter, M. C. &amp; Scott, E. P. – Ciências Térmicas: Termodinâmica, Mecânica dos Fluidos e Transmissão de Calor – Thomson.5.Moran, M. J., Shapiro, H. N., Boettner, D. D. &amp; Bailey, M. B. – Princípios de Termodinâmica para Engenharia – 7ª ed., LTC.6.Potter, M. C. &amp; Scott, E. P. – Termodinâmica – Thomson.7.J.H. Keenan. Gas Tables: Thermodynamics Properties of Air Products of Combustion and Component Gases Compressible Flow Functions. John Wiley, 1980</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -482,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -607,106 +616,114 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
